--- a/chutes.xlsx
+++ b/chutes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anne-gabrielle/mig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4736014E-13CA-DB4F-8F42-6BE2623537C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2787A42E-E6C9-7A47-AAB1-FEC4F2D397D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12320" yWindow="540" windowWidth="14280" windowHeight="15940" xr2:uid="{1ED5B126-00FE-6A43-8562-BAA27F595490}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>composition</t>
   </si>
@@ -67,22 +67,67 @@
     <t>quantité</t>
   </si>
   <si>
-    <t>soie</t>
-  </si>
-  <si>
     <t>velour</t>
   </si>
   <si>
     <t>épaisseur (mm)</t>
   </si>
   <si>
-    <t>taille (m2)</t>
-  </si>
-  <si>
     <t>numéro</t>
   </si>
   <si>
     <t>caoutchouc</t>
+  </si>
+  <si>
+    <t>cuir</t>
+  </si>
+  <si>
+    <t>feutre</t>
+  </si>
+  <si>
+    <t>synthétique</t>
+  </si>
+  <si>
+    <t>tweed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simili cuir </t>
+  </si>
+  <si>
+    <t>osier</t>
+  </si>
+  <si>
+    <t>plastique</t>
+  </si>
+  <si>
+    <t>élastique</t>
+  </si>
+  <si>
+    <t>carton</t>
+  </si>
+  <si>
+    <t>vinyle</t>
+  </si>
+  <si>
+    <t>thermocollant</t>
+  </si>
+  <si>
+    <t>fausse soie</t>
+  </si>
+  <si>
+    <t>taille (cm2)</t>
+  </si>
+  <si>
+    <t>métal</t>
+  </si>
+  <si>
+    <t>fausse soire</t>
+  </si>
+  <si>
+    <t>maille synthétique</t>
+  </si>
+  <si>
+    <t>faux velour</t>
   </si>
 </sst>
 </file>
@@ -434,17 +479,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17845A4-BE77-A146-A9B1-E058953B7336}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -474,10 +519,10 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M1" t="s">
         <v>9</v>
@@ -488,25 +533,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
       <c r="H2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -518,10 +563,10 @@
         <v>0.2</v>
       </c>
       <c r="L2">
-        <v>0.4</v>
+        <v>300</v>
       </c>
       <c r="M2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -529,25 +574,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -556,13 +601,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -570,7 +615,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -588,19 +633,19 @@
         <v>8</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.9</v>
+        <v>200</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -611,13 +656,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -626,10 +671,10 @@
         <v>7</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -641,10 +686,10 @@
         <v>0.2</v>
       </c>
       <c r="L5">
-        <v>1.5</v>
+        <v>2700</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -652,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -679,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L6">
-        <v>0.6</v>
+        <v>2880</v>
       </c>
       <c r="M6">
         <v>70</v>
@@ -693,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -720,13 +765,1038 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L7">
+        <v>200</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>400</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>550</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>0.2</v>
       </c>
-      <c r="M7">
-        <v>10</v>
+      <c r="L10">
+        <v>200</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1000</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>800</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>2000</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>800</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1250</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>80</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>400</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>240</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>0.1</v>
+      </c>
+      <c r="L21">
+        <v>50</v>
+      </c>
+      <c r="M21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>20</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>0.5</v>
+      </c>
+      <c r="L24">
+        <v>60</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>150</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.5</v>
+      </c>
+      <c r="L26">
+        <v>300</v>
+      </c>
+      <c r="M26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0.2</v>
+      </c>
+      <c r="L27">
+        <v>200</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0.2</v>
+      </c>
+      <c r="L28">
+        <v>250</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>250</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>0.5</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+      <c r="L31">
+        <v>400</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0.2</v>
+      </c>
+      <c r="L32">
+        <v>100</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
